--- a/inst/extdata/Rxs_minimal_example_2.xlsx
+++ b/inst/extdata/Rxs_minimal_example_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="212">
   <si>
     <t>title</t>
   </si>
@@ -594,6 +594,18 @@
     <t>The identifier provided as NAME contains invalid characters (i.e. something that is not a-z, A-Z, 0-9, or _) or does not start with a letter; the value is VALUE</t>
   </si>
   <si>
+    <t>An ORCID. Only include the ORCID itself; if the article lists the ORCID as an URL, omit the part before the last slash (see the example).</t>
+  </si>
+  <si>
+    <t>"0000-0003-2814-9483"</t>
+  </si>
+  <si>
+    <t>grepl("([0-9][0-9][0-9][0-9]-){3}[0-9][0-9][0-9][0-9]", VALUE)</t>
+  </si>
+  <si>
+    <t>An ORCID always contains exactly four sets of four digits, separated by a dash. However, the value that was extracted for NAME does not match that pattern.</t>
+  </si>
+  <si>
     <t>term</t>
   </si>
   <si>
@@ -739,7 +751,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -849,6 +861,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -8219,35 +8234,47 @@
       <c r="AC17" s="34"/>
     </row>
     <row r="18">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="34"/>
+      <c r="A18" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="34"/>
@@ -38835,52 +38862,52 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="38" t="s">
-        <v>186</v>
+      <c r="A1" s="39" t="s">
+        <v>190</v>
       </c>
-      <c r="B1" s="38" t="s">
-        <v>187</v>
+      <c r="B1" s="39" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="39" t="s">
-        <v>188</v>
+      <c r="A2" s="40" t="s">
+        <v>192</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>189</v>
+      <c r="B2" s="40" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
     </row>
     <row r="4">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
     </row>
     <row r="5">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
     </row>
     <row r="6">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
     </row>
     <row r="7">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
     </row>
     <row r="8">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
     </row>
     <row r="9">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
     </row>
     <row r="10">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -38902,68 +38929,68 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="41" t="s">
-        <v>190</v>
+      <c r="A1" s="42" t="s">
+        <v>194</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="42" t="s">
+      <c r="A2" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="42" t="s">
+    <row r="3">
+      <c r="A3" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B3" s="43" t="s">
         <v>198</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="43" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>202</v>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="44"/>
-      <c r="B6" s="42"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="43"/>
     </row>
     <row r="7">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
     </row>
     <row r="8">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
     </row>
     <row r="9">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
     </row>
     <row r="10">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="45"/>
     </row>
     <row r="11">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="45"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -38985,60 +39012,60 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="42" t="s">
+      <c r="A1" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B1" s="42" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="42" t="s">
+    <row r="2">
+      <c r="A2" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B2" s="43" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="42" t="s">
+    <row r="3">
+      <c r="A3" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>206</v>
+      <c r="B3" s="43" t="s">
+        <v>208</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>210</v>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
     </row>
     <row r="7">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
     </row>
     <row r="8">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="45"/>
     </row>
     <row r="9">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="45"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
